--- a/data/ClueLayout.xlsx
+++ b/data/ClueLayout.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\linds\Downloads\CluePaths\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amber\Desktop\eclipse-workspace\CluePaths\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48E36B75-CFD0-4E29-8DDE-ABBC1D6ABA7E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07C7A453-2FB3-4465-9E3E-3A0BD58E0FAF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14400" yWindow="15" windowWidth="14220" windowHeight="10020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="31">
   <si>
     <t>C</t>
   </si>
@@ -93,6 +93,27 @@
   <si>
     <t>ZR</t>
   </si>
+  <si>
+    <t>Number of doors: 26</t>
+  </si>
+  <si>
+    <t>White: door direction tests</t>
+  </si>
+  <si>
+    <t>Orange: adjacency list tests, inside room</t>
+  </si>
+  <si>
+    <t>Purple: adjacency list tests, room exits</t>
+  </si>
+  <si>
+    <t>Green: adjacency lists besides room entrance</t>
+  </si>
+  <si>
+    <t>Light Purple: walkway scenarios</t>
+  </si>
+  <si>
+    <t>Light Blue: test targets</t>
+  </si>
 </sst>
 </file>
 
@@ -125,7 +146,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -162,6 +183,24 @@
         <bgColor theme="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor rgb="FF1155CC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor rgb="FFC27BA0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor rgb="FFCFE2F3"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -175,7 +214,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -197,13 +236,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -424,18 +469,18 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AA1000"/>
+  <dimension ref="A1:AA1008"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="27" width="5.81640625" customWidth="1"/>
+    <col min="1" max="27" width="5.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -518,7 +563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:27" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -601,7 +646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:27" ht="13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -684,7 +729,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:27" ht="13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -767,7 +812,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:27" ht="13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -850,7 +895,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:27" ht="13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -863,7 +908,7 @@
       <c r="D6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="11" t="s">
         <v>5</v>
       </c>
       <c r="F6" s="2" t="s">
@@ -933,7 +978,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:27" ht="13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
@@ -1016,7 +1061,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:27" ht="13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>1</v>
       </c>
@@ -1099,7 +1144,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:27" ht="13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
@@ -1182,7 +1227,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:27" ht="13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
@@ -1265,7 +1310,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:27" ht="13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>8</v>
       </c>
@@ -1290,7 +1335,7 @@
       <c r="H11" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="I11" s="12" t="s">
         <v>1</v>
       </c>
       <c r="J11" s="2" t="s">
@@ -1348,7 +1393,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:27" ht="13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>8</v>
       </c>
@@ -1358,7 +1403,7 @@
       <c r="C12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="11" t="s">
         <v>11</v>
       </c>
       <c r="E12" s="5" t="s">
@@ -1431,7 +1476,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:27" ht="13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>1</v>
       </c>
@@ -1514,7 +1559,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:27" ht="13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>1</v>
       </c>
@@ -1597,7 +1642,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:27" ht="13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>22</v>
       </c>
@@ -1680,7 +1725,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:27" ht="13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>22</v>
       </c>
@@ -1763,7 +1808,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:27" ht="13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>22</v>
       </c>
@@ -1846,7 +1891,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:27" ht="13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>22</v>
       </c>
@@ -1929,7 +1974,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:27" ht="13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>22</v>
       </c>
@@ -2012,7 +2057,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:27" ht="13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>22</v>
       </c>
@@ -2095,7 +2140,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:27" ht="13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>1</v>
       </c>
@@ -2178,7 +2223,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:27" ht="13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>1</v>
       </c>
@@ -2212,7 +2257,7 @@
       <c r="K22" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="L22" s="5" t="s">
+      <c r="L22" s="11" t="s">
         <v>18</v>
       </c>
       <c r="M22" s="5" t="s">
@@ -2233,7 +2278,7 @@
       <c r="R22" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="S22" s="5" t="s">
+      <c r="S22" s="11" t="s">
         <v>15</v>
       </c>
       <c r="T22" s="3" t="s">
@@ -2261,7 +2306,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:27" ht="13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>1</v>
       </c>
@@ -2344,7 +2389,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:27" ht="13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>1</v>
       </c>
@@ -2427,14 +2472,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:27" ht="13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="13" t="s">
         <v>19</v>
       </c>
       <c r="D25" s="3" t="s">
@@ -2510,7 +2555,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:27" ht="13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>1</v>
       </c>
@@ -2593,7 +2638,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:27" ht="13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>19</v>
       </c>
@@ -2676,7 +2721,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:27" ht="13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>19</v>
       </c>
@@ -2759,1954 +2804,1989 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:27" ht="13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A29" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B29" s="8">
+        <v>1</v>
+      </c>
+      <c r="C29" s="8">
         <v>2</v>
       </c>
-      <c r="C29" s="8">
-        <v>3</v>
-      </c>
       <c r="D29" s="8">
+        <v>3</v>
+      </c>
+      <c r="E29" s="8">
         <v>4</v>
       </c>
-      <c r="E29" s="8">
+      <c r="F29" s="8">
         <v>5</v>
       </c>
-      <c r="F29" s="8">
+      <c r="G29" s="8">
         <v>6</v>
       </c>
-      <c r="G29" s="8">
+      <c r="H29" s="8">
         <v>7</v>
       </c>
-      <c r="H29" s="9">
+      <c r="I29" s="8">
         <v>8</v>
       </c>
-      <c r="I29" s="9">
-        <v>9</v>
-      </c>
-      <c r="J29" s="9">
+      <c r="J29" s="8">
+        <v>9</v>
+      </c>
+      <c r="K29" s="8">
         <v>10</v>
       </c>
-      <c r="K29" s="9">
+      <c r="L29" s="8">
         <v>11</v>
       </c>
-      <c r="L29" s="9">
+      <c r="M29" s="8">
         <v>12</v>
       </c>
-      <c r="M29" s="9">
-        <v>13</v>
-      </c>
-      <c r="N29" s="9">
+      <c r="N29" s="8">
+        <v>13</v>
+      </c>
+      <c r="O29" s="8">
         <v>14</v>
       </c>
-      <c r="O29" s="9">
+      <c r="P29" s="8">
         <v>15</v>
       </c>
-      <c r="P29" s="9">
+      <c r="Q29" s="8">
         <v>16</v>
       </c>
-      <c r="Q29" s="9">
-        <v>17</v>
-      </c>
       <c r="R29" s="8">
+        <v>17</v>
+      </c>
+      <c r="S29" s="8">
         <v>18</v>
       </c>
-      <c r="S29" s="8">
+      <c r="T29" s="8">
         <v>19</v>
       </c>
-      <c r="T29" s="8">
+      <c r="U29" s="8">
         <v>20</v>
       </c>
-      <c r="U29" s="8">
+      <c r="V29" s="8">
         <v>21</v>
       </c>
-      <c r="V29" s="8">
+      <c r="W29" s="8">
         <v>22</v>
       </c>
-      <c r="W29" s="8">
+      <c r="X29" s="8">
         <v>23</v>
       </c>
-      <c r="X29" s="8">
+      <c r="Y29" s="8">
         <v>24</v>
       </c>
-      <c r="Y29" s="8">
+      <c r="Z29" s="8">
         <v>25</v>
       </c>
-      <c r="Z29" s="8">
+      <c r="AA29" s="9"/>
+    </row>
+    <row r="30" spans="1:27" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="9"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c r="L30" s="9"/>
+      <c r="M30" s="9"/>
+      <c r="N30" s="9"/>
+      <c r="O30" s="9"/>
+      <c r="P30" s="9"/>
+      <c r="Q30" s="9"/>
+      <c r="R30" s="9"/>
+      <c r="S30" s="9"/>
+      <c r="T30" s="9"/>
+      <c r="U30" s="9"/>
+      <c r="V30" s="9"/>
+      <c r="W30" s="9"/>
+      <c r="X30" s="9"/>
+      <c r="Y30" s="9"/>
+      <c r="Z30" s="9"/>
+      <c r="AA30" s="9"/>
+    </row>
+    <row r="31" spans="1:27" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="9"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c r="L31" s="9"/>
+      <c r="M31" s="9"/>
+      <c r="N31" s="9"/>
+      <c r="O31" s="9"/>
+      <c r="P31" s="9"/>
+      <c r="Q31" s="9"/>
+      <c r="R31" s="9"/>
+      <c r="S31" s="9"/>
+      <c r="T31" s="9"/>
+      <c r="U31" s="9"/>
+      <c r="V31" s="9"/>
+      <c r="W31" s="9"/>
+      <c r="X31" s="9"/>
+      <c r="Y31" s="9"/>
+      <c r="Z31" s="9"/>
+      <c r="AA31" s="9"/>
+    </row>
+    <row r="32" spans="1:27" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="9"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c r="L32" s="9"/>
+      <c r="M32" s="9"/>
+      <c r="N32" s="9"/>
+      <c r="O32" s="9"/>
+      <c r="P32" s="9"/>
+      <c r="Q32" s="9"/>
+      <c r="R32" s="9"/>
+      <c r="S32" s="9"/>
+      <c r="T32" s="9"/>
+      <c r="U32" s="9"/>
+      <c r="V32" s="9"/>
+      <c r="W32" s="9"/>
+      <c r="X32" s="9"/>
+      <c r="Y32" s="9"/>
+      <c r="Z32" s="9"/>
+      <c r="AA32" s="9"/>
+    </row>
+    <row r="33" spans="1:27" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="9"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c r="L33" s="9"/>
+      <c r="M33" s="9"/>
+      <c r="N33" s="9"/>
+      <c r="O33" s="9"/>
+      <c r="P33" s="9"/>
+      <c r="Q33" s="9"/>
+      <c r="R33" s="9"/>
+      <c r="S33" s="9"/>
+      <c r="T33" s="9"/>
+      <c r="U33" s="9"/>
+      <c r="V33" s="9"/>
+      <c r="W33" s="9"/>
+      <c r="X33" s="9"/>
+      <c r="Y33" s="9"/>
+      <c r="Z33" s="9"/>
+      <c r="AA33" s="9"/>
+    </row>
+    <row r="34" spans="1:27" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="9"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c r="L34" s="9"/>
+      <c r="M34" s="9"/>
+      <c r="N34" s="9"/>
+      <c r="O34" s="9"/>
+      <c r="P34" s="9"/>
+      <c r="Q34" s="9"/>
+      <c r="R34" s="9"/>
+      <c r="S34" s="9"/>
+      <c r="T34" s="9"/>
+      <c r="U34" s="9"/>
+      <c r="V34" s="9"/>
+      <c r="W34" s="9"/>
+      <c r="X34" s="9"/>
+      <c r="Y34" s="9"/>
+      <c r="Z34" s="9"/>
+      <c r="AA34" s="9"/>
+    </row>
+    <row r="35" spans="1:27" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="9"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c r="L35" s="9"/>
+      <c r="M35" s="9"/>
+      <c r="N35" s="9"/>
+      <c r="O35" s="9"/>
+      <c r="P35" s="9"/>
+      <c r="Q35" s="9"/>
+      <c r="R35" s="9"/>
+      <c r="S35" s="9"/>
+      <c r="T35" s="9"/>
+      <c r="U35" s="9"/>
+      <c r="V35" s="9"/>
+      <c r="W35" s="9"/>
+      <c r="X35" s="9"/>
+      <c r="Y35" s="9"/>
+      <c r="Z35" s="9"/>
+      <c r="AA35" s="9"/>
+    </row>
+    <row r="36" spans="1:27" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="9"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c r="L36" s="9"/>
+      <c r="M36" s="9"/>
+      <c r="N36" s="9"/>
+      <c r="O36" s="9"/>
+      <c r="P36" s="9"/>
+      <c r="Q36" s="9"/>
+      <c r="R36" s="9"/>
+      <c r="S36" s="9"/>
+      <c r="T36" s="9"/>
+      <c r="U36" s="9"/>
+      <c r="V36" s="9"/>
+      <c r="W36" s="9"/>
+      <c r="X36" s="9"/>
+      <c r="Y36" s="9"/>
+      <c r="Z36" s="9"/>
+      <c r="AA36" s="9"/>
+    </row>
+    <row r="37" spans="1:27" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="9"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c r="L37" s="9"/>
+      <c r="M37" s="9"/>
+      <c r="N37" s="9"/>
+      <c r="O37" s="9"/>
+      <c r="P37" s="9"/>
+      <c r="Q37" s="9"/>
+      <c r="R37" s="9"/>
+      <c r="S37" s="9"/>
+      <c r="T37" s="9"/>
+      <c r="U37" s="9"/>
+      <c r="V37" s="9"/>
+      <c r="W37" s="9"/>
+      <c r="X37" s="9"/>
+      <c r="Y37" s="9"/>
+      <c r="Z37" s="9"/>
+      <c r="AA37" s="9"/>
+    </row>
+    <row r="38" spans="1:27" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="9"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c r="L38" s="9"/>
+      <c r="M38" s="9"/>
+      <c r="N38" s="9"/>
+      <c r="O38" s="9"/>
+      <c r="P38" s="9"/>
+      <c r="Q38" s="9"/>
+      <c r="R38" s="9"/>
+      <c r="S38" s="9"/>
+      <c r="T38" s="9"/>
+      <c r="U38" s="9"/>
+      <c r="V38" s="9"/>
+      <c r="W38" s="9"/>
+      <c r="X38" s="9"/>
+      <c r="Y38" s="9"/>
+      <c r="Z38" s="9"/>
+      <c r="AA38" s="9"/>
+    </row>
+    <row r="39" spans="1:27" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="9"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c r="L39" s="9"/>
+      <c r="M39" s="9"/>
+      <c r="N39" s="9"/>
+      <c r="O39" s="9"/>
+      <c r="P39" s="9"/>
+      <c r="Q39" s="9"/>
+      <c r="R39" s="9"/>
+      <c r="S39" s="9"/>
+      <c r="T39" s="9"/>
+      <c r="U39" s="9"/>
+      <c r="V39" s="9"/>
+      <c r="W39" s="9"/>
+      <c r="X39" s="9"/>
+      <c r="Y39" s="9"/>
+      <c r="Z39" s="9"/>
+      <c r="AA39" s="9"/>
+    </row>
+    <row r="40" spans="1:27" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="9"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="9"/>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c r="L40" s="9"/>
+      <c r="M40" s="9"/>
+      <c r="N40" s="9"/>
+      <c r="O40" s="9"/>
+      <c r="P40" s="9"/>
+      <c r="Q40" s="9"/>
+      <c r="R40" s="9"/>
+      <c r="S40" s="9"/>
+      <c r="T40" s="9"/>
+      <c r="U40" s="9"/>
+      <c r="V40" s="9"/>
+      <c r="W40" s="9"/>
+      <c r="X40" s="9"/>
+      <c r="Y40" s="9"/>
+      <c r="Z40" s="9"/>
+      <c r="AA40" s="9"/>
+    </row>
+    <row r="41" spans="1:27" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="9"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="9"/>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c r="L41" s="9"/>
+      <c r="M41" s="9"/>
+      <c r="N41" s="9"/>
+      <c r="O41" s="9"/>
+      <c r="P41" s="9"/>
+      <c r="Q41" s="9"/>
+      <c r="R41" s="9"/>
+      <c r="S41" s="9"/>
+      <c r="T41" s="9"/>
+      <c r="U41" s="9"/>
+      <c r="V41" s="9"/>
+      <c r="W41" s="9"/>
+      <c r="X41" s="9"/>
+      <c r="Y41" s="9"/>
+      <c r="Z41" s="9"/>
+      <c r="AA41" s="9"/>
+    </row>
+    <row r="42" spans="1:27" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="9"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="9"/>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
+      <c r="L42" s="9"/>
+      <c r="M42" s="9"/>
+      <c r="N42" s="9"/>
+      <c r="O42" s="9"/>
+      <c r="P42" s="9"/>
+      <c r="Q42" s="9"/>
+      <c r="R42" s="9"/>
+      <c r="S42" s="9"/>
+      <c r="T42" s="9"/>
+      <c r="U42" s="9"/>
+      <c r="V42" s="9"/>
+      <c r="W42" s="9"/>
+      <c r="X42" s="9"/>
+      <c r="Y42" s="9"/>
+      <c r="Z42" s="9"/>
+      <c r="AA42" s="9"/>
+    </row>
+    <row r="43" spans="1:27" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="9"/>
+      <c r="B43" s="9"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="9"/>
+      <c r="H43" s="9"/>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="9"/>
+      <c r="L43" s="9"/>
+      <c r="M43" s="9"/>
+      <c r="N43" s="9"/>
+      <c r="O43" s="9"/>
+      <c r="P43" s="9"/>
+      <c r="Q43" s="9"/>
+      <c r="R43" s="9"/>
+      <c r="S43" s="9"/>
+      <c r="T43" s="9"/>
+      <c r="U43" s="9"/>
+      <c r="V43" s="9"/>
+      <c r="W43" s="9"/>
+      <c r="X43" s="9"/>
+      <c r="Y43" s="9"/>
+      <c r="Z43" s="9"/>
+      <c r="AA43" s="9"/>
+    </row>
+    <row r="44" spans="1:27" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="9"/>
+      <c r="B44" s="9"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="9"/>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="9"/>
+      <c r="L44" s="9"/>
+      <c r="M44" s="9"/>
+      <c r="N44" s="9"/>
+      <c r="O44" s="9"/>
+      <c r="P44" s="9"/>
+      <c r="Q44" s="9"/>
+      <c r="R44" s="9"/>
+      <c r="S44" s="9"/>
+      <c r="T44" s="9"/>
+      <c r="U44" s="9"/>
+      <c r="V44" s="9"/>
+      <c r="W44" s="9"/>
+      <c r="X44" s="9"/>
+      <c r="Y44" s="9"/>
+      <c r="Z44" s="9"/>
+      <c r="AA44" s="9"/>
+    </row>
+    <row r="45" spans="1:27" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="9"/>
+      <c r="B45" s="9"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="9"/>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="9"/>
+      <c r="L45" s="9"/>
+      <c r="M45" s="9"/>
+      <c r="N45" s="9"/>
+      <c r="O45" s="9"/>
+      <c r="P45" s="9"/>
+      <c r="Q45" s="9"/>
+      <c r="R45" s="9"/>
+      <c r="S45" s="9"/>
+      <c r="T45" s="9"/>
+      <c r="U45" s="9"/>
+      <c r="V45" s="9"/>
+      <c r="W45" s="9"/>
+      <c r="X45" s="9"/>
+      <c r="Y45" s="9"/>
+      <c r="Z45" s="9"/>
+      <c r="AA45" s="9"/>
+    </row>
+    <row r="46" spans="1:27" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="9"/>
+      <c r="B46" s="9"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="9"/>
+      <c r="H46" s="9"/>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="9"/>
+      <c r="L46" s="9"/>
+      <c r="M46" s="9"/>
+      <c r="N46" s="9"/>
+      <c r="O46" s="9"/>
+      <c r="P46" s="9"/>
+      <c r="Q46" s="9"/>
+      <c r="R46" s="9"/>
+      <c r="S46" s="9"/>
+      <c r="T46" s="9"/>
+      <c r="U46" s="9"/>
+      <c r="V46" s="9"/>
+      <c r="W46" s="9"/>
+      <c r="X46" s="9"/>
+      <c r="Y46" s="9"/>
+      <c r="Z46" s="9"/>
+      <c r="AA46" s="9"/>
+    </row>
+    <row r="47" spans="1:27" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="9"/>
+      <c r="B47" s="9"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="9"/>
+      <c r="H47" s="9"/>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="9"/>
+      <c r="L47" s="9"/>
+      <c r="M47" s="9"/>
+      <c r="N47" s="9"/>
+      <c r="O47" s="9"/>
+      <c r="P47" s="9"/>
+      <c r="Q47" s="9"/>
+      <c r="R47" s="9"/>
+      <c r="S47" s="9"/>
+      <c r="T47" s="9"/>
+      <c r="U47" s="9"/>
+      <c r="V47" s="9"/>
+      <c r="W47" s="9"/>
+      <c r="X47" s="9"/>
+      <c r="Y47" s="9"/>
+      <c r="Z47" s="9"/>
+      <c r="AA47" s="9"/>
+    </row>
+    <row r="48" spans="1:27" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="9"/>
+      <c r="B48" s="9"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="9"/>
+      <c r="H48" s="9"/>
+      <c r="I48" s="9"/>
+      <c r="J48" s="9"/>
+      <c r="K48" s="9"/>
+      <c r="L48" s="9"/>
+      <c r="M48" s="9"/>
+      <c r="N48" s="9"/>
+      <c r="O48" s="9"/>
+      <c r="P48" s="9"/>
+      <c r="Q48" s="9"/>
+      <c r="R48" s="9"/>
+      <c r="S48" s="9"/>
+      <c r="T48" s="9"/>
+      <c r="U48" s="9"/>
+      <c r="V48" s="9"/>
+      <c r="W48" s="9"/>
+      <c r="X48" s="9"/>
+      <c r="Y48" s="9"/>
+      <c r="Z48" s="9"/>
+      <c r="AA48" s="9"/>
+    </row>
+    <row r="49" spans="1:27" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="9"/>
+      <c r="B49" s="9"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="9"/>
+      <c r="G49" s="9"/>
+      <c r="H49" s="9"/>
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="9"/>
+      <c r="L49" s="9"/>
+      <c r="M49" s="9"/>
+      <c r="N49" s="9"/>
+      <c r="O49" s="9"/>
+      <c r="P49" s="9"/>
+      <c r="Q49" s="9"/>
+      <c r="R49" s="9"/>
+      <c r="S49" s="9"/>
+      <c r="T49" s="9"/>
+      <c r="U49" s="9"/>
+      <c r="V49" s="9"/>
+      <c r="W49" s="9"/>
+      <c r="X49" s="9"/>
+      <c r="Y49" s="9"/>
+      <c r="Z49" s="9"/>
+      <c r="AA49" s="9"/>
+    </row>
+    <row r="50" spans="1:27" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="9"/>
+      <c r="B50" s="9"/>
+      <c r="C50" s="9"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="9"/>
+      <c r="G50" s="9"/>
+      <c r="H50" s="9"/>
+      <c r="I50" s="9"/>
+      <c r="J50" s="9"/>
+      <c r="K50" s="9"/>
+      <c r="L50" s="9"/>
+      <c r="M50" s="9"/>
+      <c r="N50" s="9"/>
+      <c r="O50" s="9"/>
+      <c r="P50" s="9"/>
+      <c r="Q50" s="9"/>
+      <c r="R50" s="9"/>
+      <c r="S50" s="9"/>
+      <c r="T50" s="9"/>
+      <c r="U50" s="9"/>
+      <c r="V50" s="9"/>
+      <c r="W50" s="9"/>
+      <c r="X50" s="9"/>
+      <c r="Y50" s="9"/>
+      <c r="Z50" s="9"/>
+      <c r="AA50" s="9"/>
+    </row>
+    <row r="51" spans="1:27" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="9"/>
+      <c r="B51" s="9"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="9"/>
+      <c r="E51" s="9"/>
+      <c r="F51" s="9"/>
+      <c r="G51" s="9"/>
+      <c r="H51" s="9"/>
+      <c r="I51" s="9"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="9"/>
+      <c r="L51" s="9"/>
+      <c r="M51" s="9"/>
+      <c r="N51" s="9"/>
+      <c r="O51" s="9"/>
+      <c r="P51" s="9"/>
+      <c r="Q51" s="9"/>
+      <c r="R51" s="9"/>
+      <c r="S51" s="9"/>
+      <c r="T51" s="9"/>
+      <c r="U51" s="9"/>
+      <c r="V51" s="9"/>
+      <c r="W51" s="9"/>
+      <c r="X51" s="9"/>
+      <c r="Y51" s="9"/>
+      <c r="Z51" s="9"/>
+      <c r="AA51" s="9"/>
+    </row>
+    <row r="52" spans="1:27" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="9"/>
+      <c r="B52" s="9"/>
+      <c r="C52" s="9"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="9"/>
+      <c r="G52" s="9"/>
+      <c r="H52" s="9"/>
+      <c r="I52" s="9"/>
+      <c r="J52" s="9"/>
+      <c r="K52" s="9"/>
+      <c r="L52" s="9"/>
+      <c r="M52" s="9"/>
+      <c r="N52" s="9"/>
+      <c r="O52" s="9"/>
+      <c r="P52" s="9"/>
+      <c r="Q52" s="9"/>
+      <c r="R52" s="9"/>
+      <c r="S52" s="9"/>
+      <c r="T52" s="9"/>
+      <c r="U52" s="9"/>
+      <c r="V52" s="9"/>
+      <c r="W52" s="9"/>
+      <c r="X52" s="9"/>
+      <c r="Y52" s="9"/>
+      <c r="Z52" s="9"/>
+      <c r="AA52" s="9"/>
+    </row>
+    <row r="53" spans="1:27" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="9"/>
+      <c r="B53" s="9"/>
+      <c r="C53" s="9"/>
+      <c r="D53" s="9"/>
+      <c r="E53" s="9"/>
+      <c r="F53" s="9"/>
+      <c r="G53" s="9"/>
+      <c r="H53" s="9"/>
+      <c r="I53" s="9"/>
+      <c r="J53" s="9"/>
+      <c r="K53" s="9"/>
+      <c r="L53" s="9"/>
+      <c r="M53" s="9"/>
+      <c r="N53" s="9"/>
+      <c r="O53" s="9"/>
+      <c r="P53" s="9"/>
+      <c r="Q53" s="9"/>
+      <c r="R53" s="9"/>
+      <c r="S53" s="9"/>
+      <c r="T53" s="9"/>
+      <c r="U53" s="9"/>
+      <c r="V53" s="9"/>
+      <c r="W53" s="9"/>
+      <c r="X53" s="9"/>
+      <c r="Y53" s="9"/>
+      <c r="Z53" s="9"/>
+      <c r="AA53" s="9"/>
+    </row>
+    <row r="54" spans="1:27" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="9"/>
+      <c r="B54" s="9"/>
+      <c r="C54" s="9"/>
+      <c r="D54" s="9"/>
+      <c r="E54" s="9"/>
+      <c r="F54" s="9"/>
+      <c r="G54" s="9"/>
+      <c r="H54" s="9"/>
+      <c r="I54" s="9"/>
+      <c r="J54" s="9"/>
+      <c r="K54" s="9"/>
+      <c r="L54" s="9"/>
+      <c r="M54" s="9"/>
+      <c r="N54" s="9"/>
+      <c r="O54" s="9"/>
+      <c r="P54" s="9"/>
+      <c r="Q54" s="9"/>
+      <c r="R54" s="9"/>
+      <c r="S54" s="9"/>
+      <c r="T54" s="9"/>
+      <c r="U54" s="9"/>
+      <c r="V54" s="9"/>
+      <c r="W54" s="9"/>
+      <c r="X54" s="9"/>
+      <c r="Y54" s="9"/>
+      <c r="Z54" s="9"/>
+      <c r="AA54" s="9"/>
+    </row>
+    <row r="55" spans="1:27" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="9"/>
+      <c r="B55" s="9"/>
+      <c r="C55" s="9"/>
+      <c r="D55" s="9"/>
+      <c r="E55" s="9"/>
+      <c r="F55" s="9"/>
+      <c r="G55" s="9"/>
+      <c r="H55" s="9"/>
+      <c r="I55" s="9"/>
+      <c r="J55" s="9"/>
+      <c r="K55" s="9"/>
+      <c r="L55" s="9"/>
+      <c r="M55" s="9"/>
+      <c r="N55" s="9"/>
+      <c r="O55" s="9"/>
+      <c r="P55" s="9"/>
+      <c r="Q55" s="9"/>
+      <c r="R55" s="9"/>
+      <c r="S55" s="9"/>
+      <c r="T55" s="9"/>
+      <c r="U55" s="9"/>
+      <c r="V55" s="9"/>
+      <c r="W55" s="9"/>
+      <c r="X55" s="9"/>
+      <c r="Y55" s="9"/>
+      <c r="Z55" s="9"/>
+      <c r="AA55" s="9"/>
+    </row>
+    <row r="56" spans="1:27" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="9"/>
+      <c r="B56" s="9"/>
+      <c r="C56" s="9"/>
+      <c r="D56" s="9"/>
+      <c r="E56" s="9"/>
+      <c r="F56" s="9"/>
+      <c r="G56" s="9"/>
+      <c r="H56" s="9"/>
+      <c r="I56" s="9"/>
+      <c r="J56" s="9"/>
+      <c r="K56" s="9"/>
+      <c r="L56" s="9"/>
+      <c r="M56" s="9"/>
+      <c r="N56" s="9"/>
+      <c r="O56" s="9"/>
+      <c r="P56" s="9"/>
+      <c r="Q56" s="9"/>
+      <c r="R56" s="9"/>
+      <c r="S56" s="9"/>
+      <c r="T56" s="9"/>
+      <c r="U56" s="9"/>
+      <c r="V56" s="9"/>
+      <c r="W56" s="9"/>
+      <c r="X56" s="9"/>
+      <c r="Y56" s="9"/>
+      <c r="Z56" s="9"/>
+      <c r="AA56" s="9"/>
+    </row>
+    <row r="57" spans="1:27" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="9"/>
+      <c r="B57" s="9"/>
+      <c r="C57" s="9"/>
+      <c r="D57" s="9"/>
+      <c r="E57" s="9"/>
+      <c r="F57" s="9"/>
+      <c r="G57" s="9"/>
+      <c r="H57" s="9"/>
+      <c r="I57" s="9"/>
+      <c r="J57" s="9"/>
+      <c r="K57" s="9"/>
+      <c r="L57" s="9"/>
+      <c r="M57" s="9"/>
+      <c r="N57" s="9"/>
+      <c r="O57" s="9"/>
+      <c r="P57" s="9"/>
+      <c r="Q57" s="9"/>
+      <c r="R57" s="9"/>
+      <c r="S57" s="9"/>
+      <c r="T57" s="9"/>
+      <c r="U57" s="9"/>
+      <c r="V57" s="9"/>
+      <c r="W57" s="9"/>
+      <c r="X57" s="9"/>
+      <c r="Y57" s="9"/>
+      <c r="Z57" s="9"/>
+      <c r="AA57" s="9"/>
+    </row>
+    <row r="58" spans="1:27" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="9"/>
+      <c r="B58" s="9"/>
+      <c r="C58" s="9"/>
+      <c r="D58" s="9"/>
+      <c r="E58" s="9"/>
+      <c r="F58" s="9"/>
+      <c r="G58" s="9"/>
+      <c r="H58" s="9"/>
+      <c r="I58" s="9"/>
+      <c r="J58" s="9"/>
+      <c r="K58" s="9"/>
+      <c r="L58" s="9"/>
+      <c r="M58" s="9"/>
+      <c r="N58" s="9"/>
+      <c r="O58" s="9"/>
+      <c r="P58" s="9"/>
+      <c r="Q58" s="9"/>
+      <c r="R58" s="9"/>
+      <c r="S58" s="9"/>
+      <c r="T58" s="9"/>
+      <c r="U58" s="9"/>
+      <c r="V58" s="9"/>
+      <c r="W58" s="9"/>
+      <c r="X58" s="9"/>
+      <c r="Y58" s="9"/>
+      <c r="Z58" s="9"/>
+      <c r="AA58" s="9"/>
+    </row>
+    <row r="59" spans="1:27" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="9"/>
+      <c r="B59" s="9"/>
+      <c r="C59" s="9"/>
+      <c r="D59" s="9"/>
+      <c r="E59" s="9"/>
+      <c r="F59" s="9"/>
+      <c r="G59" s="9"/>
+      <c r="H59" s="9"/>
+      <c r="I59" s="9"/>
+      <c r="J59" s="9"/>
+      <c r="K59" s="9"/>
+      <c r="L59" s="9"/>
+      <c r="M59" s="9"/>
+      <c r="N59" s="9"/>
+      <c r="O59" s="9"/>
+      <c r="P59" s="9"/>
+      <c r="Q59" s="9"/>
+      <c r="R59" s="9"/>
+      <c r="S59" s="9"/>
+      <c r="T59" s="9"/>
+      <c r="U59" s="9"/>
+      <c r="V59" s="9"/>
+      <c r="W59" s="9"/>
+      <c r="X59" s="9"/>
+      <c r="Y59" s="9"/>
+      <c r="Z59" s="9"/>
+      <c r="AA59" s="9"/>
+    </row>
+    <row r="60" spans="1:27" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="9"/>
+      <c r="B60" s="9"/>
+      <c r="C60" s="9"/>
+      <c r="D60" s="9"/>
+      <c r="E60" s="9"/>
+      <c r="F60" s="9"/>
+      <c r="G60" s="9"/>
+      <c r="H60" s="9"/>
+      <c r="I60" s="9"/>
+      <c r="J60" s="9"/>
+      <c r="K60" s="9"/>
+      <c r="L60" s="9"/>
+      <c r="M60" s="9"/>
+      <c r="N60" s="9"/>
+      <c r="O60" s="9"/>
+      <c r="P60" s="9"/>
+      <c r="Q60" s="9"/>
+      <c r="R60" s="9"/>
+      <c r="S60" s="9"/>
+      <c r="T60" s="9"/>
+      <c r="U60" s="9"/>
+      <c r="V60" s="9"/>
+      <c r="W60" s="9"/>
+      <c r="X60" s="9"/>
+      <c r="Y60" s="9"/>
+      <c r="Z60" s="9"/>
+      <c r="AA60" s="9"/>
+    </row>
+    <row r="61" spans="1:27" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="9"/>
+      <c r="B61" s="9"/>
+      <c r="C61" s="9"/>
+      <c r="D61" s="9"/>
+      <c r="E61" s="9"/>
+      <c r="F61" s="9"/>
+      <c r="G61" s="9"/>
+      <c r="H61" s="9"/>
+      <c r="I61" s="9"/>
+      <c r="J61" s="9"/>
+      <c r="K61" s="9"/>
+      <c r="L61" s="9"/>
+      <c r="M61" s="9"/>
+      <c r="N61" s="9"/>
+      <c r="O61" s="9"/>
+      <c r="P61" s="9"/>
+      <c r="Q61" s="9"/>
+      <c r="R61" s="9"/>
+      <c r="S61" s="9"/>
+      <c r="T61" s="9"/>
+      <c r="U61" s="9"/>
+      <c r="V61" s="9"/>
+      <c r="W61" s="9"/>
+      <c r="X61" s="9"/>
+      <c r="Y61" s="9"/>
+      <c r="Z61" s="9"/>
+      <c r="AA61" s="9"/>
+    </row>
+    <row r="62" spans="1:27" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="63" spans="1:27" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="64" spans="1:27" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="65" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="66" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="67" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="68" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="69" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="70" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="71" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="72" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="73" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="74" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="75" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="76" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="77" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="78" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="79" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="80" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="81" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="82" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="83" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="84" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="85" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="86" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="87" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="88" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="89" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="90" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="91" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="92" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="93" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="94" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="95" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="96" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="97" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="98" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="99" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="100" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="101" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="102" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="103" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="104" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="105" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="106" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="107" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="108" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="109" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="110" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="111" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="112" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="113" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="114" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="115" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="116" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="117" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="118" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="119" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="120" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="121" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="122" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="123" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="124" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="125" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="126" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="127" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="128" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="129" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="130" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="131" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="132" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="133" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="134" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="135" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="136" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="137" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="138" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="139" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="140" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="141" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="142" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="143" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="144" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="145" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="146" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="147" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="148" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="149" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="150" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="151" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="152" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="153" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="154" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="155" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="156" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="157" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="158" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="159" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="160" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="161" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="162" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="163" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="164" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="165" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="166" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="167" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="168" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="169" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="170" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="171" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="172" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="173" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="174" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="175" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="176" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="177" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="178" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="179" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="180" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="181" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="182" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="183" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="184" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="185" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="186" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="187" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="188" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="189" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="190" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="191" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="192" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="193" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="194" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="195" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="196" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="197" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="198" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="199" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="200" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="201" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="202" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="203" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="204" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="205" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="206" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="207" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="208" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="209" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="210" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="211" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="212" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="213" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="214" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="215" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="216" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="217" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="218" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="219" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="220" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="221" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="222" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="223" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="224" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="225" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="226" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="227" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="228" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="229" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="230" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="231" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="232" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="233" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="234" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="235" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="236" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="237" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="238" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="239" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="240" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="241" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="242" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="243" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="244" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="245" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="246" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="247" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="248" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="249" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="250" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="251" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="252" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="253" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="254" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="255" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="256" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="257" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="258" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="259" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="260" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="261" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="262" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="263" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="264" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="265" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="266" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="267" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="268" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="269" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="270" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="271" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="272" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="273" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="274" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="275" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="276" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="277" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="278" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="279" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="280" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="281" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="282" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="283" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="284" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="285" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="286" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="287" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="288" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="289" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="290" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="291" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="292" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="293" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="294" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="295" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="296" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="297" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="298" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="299" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="300" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="301" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="302" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="303" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="304" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="305" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="306" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="307" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="308" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="309" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="310" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="311" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="312" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="313" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="314" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="315" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="316" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="317" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="318" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="319" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="320" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="321" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="322" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="323" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="324" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="325" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="326" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="327" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="328" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="329" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="330" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="331" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="332" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="333" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="334" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="335" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="336" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="337" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="338" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="339" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="340" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="341" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="342" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="343" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="344" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="345" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="346" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="347" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="348" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="349" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="350" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="351" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="352" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="353" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="354" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="355" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="356" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="357" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="358" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="359" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="360" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="361" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="362" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="363" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="364" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="365" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="366" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="367" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="368" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="369" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="370" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="371" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="372" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="373" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="374" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="375" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="376" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="377" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="378" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="379" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="380" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="381" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="382" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="383" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="384" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="385" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="386" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="387" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="388" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="389" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="390" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="391" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="392" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="393" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="394" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="395" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="396" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="397" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="398" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="399" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="400" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="401" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="402" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="403" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="404" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="405" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="406" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="407" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="408" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="409" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="410" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="411" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="412" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="413" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="414" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="415" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="416" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="417" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="418" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="419" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="420" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="421" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="422" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="423" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="424" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="425" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="426" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="427" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="428" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="429" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="430" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="431" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="432" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="433" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="434" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="435" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="436" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="437" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="438" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="439" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="440" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="441" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="442" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="443" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="444" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="445" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="446" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="447" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="448" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="449" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="450" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="451" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="452" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="453" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="454" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="455" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="456" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="457" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="458" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="459" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="460" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="461" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="462" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="463" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="464" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="465" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="466" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="467" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="468" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="469" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="470" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="471" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="472" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="473" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="474" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="475" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="476" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="477" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="478" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="479" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="480" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="481" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="482" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="483" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="484" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="485" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="486" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="487" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="488" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="489" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="490" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="491" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="492" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="493" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="494" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="495" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="496" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="497" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="498" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="499" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="500" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="501" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="502" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="503" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="504" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="505" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="506" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="507" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="508" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="509" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="510" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="511" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="512" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="513" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="514" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="515" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="516" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="517" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="518" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="519" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="520" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="521" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="522" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="523" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="524" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="525" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="526" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="527" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="528" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="529" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="530" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="531" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="532" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="533" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="534" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="535" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="536" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="537" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="538" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="539" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="540" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="541" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="542" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="543" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="544" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="545" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="546" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="547" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="548" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="549" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="550" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="551" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="552" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="553" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="554" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="555" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="556" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="557" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="558" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="559" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="560" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="561" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="562" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="563" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="564" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="565" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="566" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="567" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="568" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="569" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="570" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="571" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="572" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="573" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="574" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="575" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="576" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="577" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="578" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="579" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="580" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="581" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="582" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="583" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="584" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="585" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="586" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="587" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="588" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="589" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="590" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="591" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="592" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="593" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="594" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="595" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="596" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="597" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="598" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="599" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="600" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="601" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="602" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="603" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="604" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="605" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="606" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="607" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="608" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="609" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="610" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="611" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="612" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="613" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="614" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="615" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="616" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="617" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="618" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="619" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="620" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="621" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="622" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="623" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="624" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="625" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="626" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="627" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="628" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="629" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="630" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="631" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="632" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="633" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="634" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="635" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="636" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="637" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="638" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="639" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="640" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="641" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="642" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="643" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="644" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="645" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="646" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="647" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="648" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="649" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="650" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="651" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="652" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="653" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="654" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="655" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="656" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="657" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="658" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="659" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="660" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="661" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="662" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="663" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="664" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="665" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="666" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="667" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="668" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="669" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="670" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="671" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="672" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="673" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="674" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="675" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="676" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="677" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="678" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="679" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="680" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="681" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="682" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="683" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="684" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="685" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="686" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="687" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="688" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="689" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="690" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="691" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="692" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="693" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="694" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="695" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="696" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="697" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="698" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="699" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="700" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="701" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="702" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="703" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="704" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="705" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="706" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="707" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="708" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="709" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="710" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="711" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="712" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="713" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="714" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="715" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="716" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="717" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="718" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="719" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="720" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="721" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="722" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="723" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="724" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="725" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="726" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="727" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="728" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="729" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="730" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="731" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="732" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="733" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="734" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="735" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="736" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="737" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="738" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="739" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="740" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="741" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="742" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="743" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="744" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="745" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="746" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="747" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="748" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="749" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="750" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="751" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="752" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="753" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="754" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="755" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="756" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="757" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="758" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="759" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="760" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="761" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="762" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="763" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="764" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="765" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="766" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="767" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="768" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="769" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="770" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="771" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="772" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="773" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="774" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="775" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="776" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="777" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="778" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="779" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="780" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="781" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="782" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="783" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="784" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="785" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="786" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="787" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="788" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="789" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="790" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="791" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="792" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="793" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="794" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="795" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="796" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="797" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="798" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="799" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="800" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="801" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="802" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="803" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="804" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="805" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="806" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="807" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="808" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="809" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="810" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="811" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="812" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="813" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="814" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="815" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="816" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="817" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="818" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="819" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="820" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="821" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="822" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="823" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="824" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="825" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="826" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="827" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="828" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="829" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="830" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="831" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="832" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="833" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="834" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="835" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="836" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="837" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="838" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="839" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="840" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="841" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="842" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="843" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="844" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="845" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="846" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="847" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="848" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="849" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="850" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="851" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="852" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="853" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="854" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="855" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="856" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="857" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="858" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="859" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="860" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="861" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="862" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="863" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="864" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="865" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="866" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="867" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="868" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="869" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="870" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="871" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="872" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="873" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="874" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="875" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="876" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="877" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="878" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="879" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="880" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="881" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="882" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="883" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="884" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="885" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="886" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="887" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="888" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="889" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="890" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="891" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="892" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="893" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="894" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="895" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="896" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="897" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="898" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="899" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="900" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="901" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="902" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="903" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="904" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="905" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="906" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="907" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="908" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="909" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="910" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="911" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="912" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="913" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="914" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="915" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="916" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="917" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="918" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="919" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="920" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="921" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="922" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="923" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="924" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="925" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="926" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="927" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="928" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="929" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="930" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="931" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="932" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="933" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="934" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="935" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="936" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="937" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="938" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="939" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="940" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="941" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="942" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="943" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="944" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="945" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="946" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="947" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="948" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="949" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="950" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="951" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="952" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="953" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="954" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="955" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="956" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="957" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="958" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="959" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="960" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="961" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="962" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="963" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="964" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="965" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="966" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="967" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="968" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="969" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="970" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="971" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="972" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="973" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="974" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="975" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="976" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="977" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="978" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="979" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="980" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="981" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="982" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="983" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="984" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="985" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="986" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="987" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="988" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="989" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="990" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="991" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="992" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="993" spans="1:1" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="994" spans="1:1" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="995" spans="1:1" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="996" spans="1:1" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="997" spans="1:1" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="998" spans="1:1" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="999" spans="1:1" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="1000" spans="1:1" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="1002" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1002" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1003" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1004" t="s">
         <v>26</v>
       </c>
-      <c r="AA29" s="10"/>
-    </row>
-    <row r="30" spans="1:27" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="10"/>
-      <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="10"/>
-      <c r="I30" s="10"/>
-      <c r="J30" s="10"/>
-      <c r="K30" s="10"/>
-      <c r="L30" s="10"/>
-      <c r="M30" s="10"/>
-      <c r="N30" s="10"/>
-      <c r="O30" s="10"/>
-      <c r="P30" s="10"/>
-      <c r="Q30" s="10"/>
-      <c r="R30" s="10"/>
-      <c r="S30" s="10"/>
-      <c r="T30" s="10"/>
-      <c r="U30" s="10"/>
-      <c r="V30" s="10"/>
-      <c r="W30" s="10"/>
-      <c r="X30" s="10"/>
-      <c r="Y30" s="10"/>
-      <c r="Z30" s="10"/>
-      <c r="AA30" s="10"/>
-    </row>
-    <row r="31" spans="1:27" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="10"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="10"/>
-      <c r="I31" s="10"/>
-      <c r="J31" s="10"/>
-      <c r="K31" s="10"/>
-      <c r="L31" s="10"/>
-      <c r="M31" s="10"/>
-      <c r="N31" s="10"/>
-      <c r="O31" s="10"/>
-      <c r="P31" s="10"/>
-      <c r="Q31" s="10"/>
-      <c r="R31" s="10"/>
-      <c r="S31" s="10"/>
-      <c r="T31" s="10"/>
-      <c r="U31" s="10"/>
-      <c r="V31" s="10"/>
-      <c r="W31" s="10"/>
-      <c r="X31" s="10"/>
-      <c r="Y31" s="10"/>
-      <c r="Z31" s="10"/>
-      <c r="AA31" s="10"/>
-    </row>
-    <row r="32" spans="1:27" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="10"/>
-      <c r="B32" s="10"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="10"/>
-      <c r="I32" s="10"/>
-      <c r="J32" s="10"/>
-      <c r="K32" s="10"/>
-      <c r="L32" s="10"/>
-      <c r="M32" s="10"/>
-      <c r="N32" s="10"/>
-      <c r="O32" s="10"/>
-      <c r="P32" s="10"/>
-      <c r="Q32" s="10"/>
-      <c r="R32" s="10"/>
-      <c r="S32" s="10"/>
-      <c r="T32" s="10"/>
-      <c r="U32" s="10"/>
-      <c r="V32" s="10"/>
-      <c r="W32" s="10"/>
-      <c r="X32" s="10"/>
-      <c r="Y32" s="10"/>
-      <c r="Z32" s="10"/>
-      <c r="AA32" s="10"/>
-    </row>
-    <row r="33" spans="1:27" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="10"/>
-      <c r="B33" s="10"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
-      <c r="H33" s="10"/>
-      <c r="I33" s="10"/>
-      <c r="J33" s="10"/>
-      <c r="K33" s="10"/>
-      <c r="L33" s="10"/>
-      <c r="M33" s="10"/>
-      <c r="N33" s="10"/>
-      <c r="O33" s="10"/>
-      <c r="P33" s="10"/>
-      <c r="Q33" s="10"/>
-      <c r="R33" s="10"/>
-      <c r="S33" s="10"/>
-      <c r="T33" s="10"/>
-      <c r="U33" s="10"/>
-      <c r="V33" s="10"/>
-      <c r="W33" s="10"/>
-      <c r="X33" s="10"/>
-      <c r="Y33" s="10"/>
-      <c r="Z33" s="10"/>
-      <c r="AA33" s="10"/>
-    </row>
-    <row r="34" spans="1:27" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="10"/>
-      <c r="B34" s="10"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="10"/>
-      <c r="G34" s="10"/>
-      <c r="H34" s="10"/>
-      <c r="I34" s="10"/>
-      <c r="J34" s="10"/>
-      <c r="K34" s="10"/>
-      <c r="L34" s="10"/>
-      <c r="M34" s="10"/>
-      <c r="N34" s="10"/>
-      <c r="O34" s="10"/>
-      <c r="P34" s="10"/>
-      <c r="Q34" s="10"/>
-      <c r="R34" s="10"/>
-      <c r="S34" s="10"/>
-      <c r="T34" s="10"/>
-      <c r="U34" s="10"/>
-      <c r="V34" s="10"/>
-      <c r="W34" s="10"/>
-      <c r="X34" s="10"/>
-      <c r="Y34" s="10"/>
-      <c r="Z34" s="10"/>
-      <c r="AA34" s="10"/>
-    </row>
-    <row r="35" spans="1:27" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="10"/>
-      <c r="B35" s="10"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="10"/>
-      <c r="G35" s="10"/>
-      <c r="H35" s="10"/>
-      <c r="I35" s="10"/>
-      <c r="J35" s="10"/>
-      <c r="K35" s="10"/>
-      <c r="L35" s="10"/>
-      <c r="M35" s="10"/>
-      <c r="N35" s="10"/>
-      <c r="O35" s="10"/>
-      <c r="P35" s="10"/>
-      <c r="Q35" s="10"/>
-      <c r="R35" s="10"/>
-      <c r="S35" s="10"/>
-      <c r="T35" s="10"/>
-      <c r="U35" s="10"/>
-      <c r="V35" s="10"/>
-      <c r="W35" s="10"/>
-      <c r="X35" s="10"/>
-      <c r="Y35" s="10"/>
-      <c r="Z35" s="10"/>
-      <c r="AA35" s="10"/>
-    </row>
-    <row r="36" spans="1:27" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="10"/>
-      <c r="B36" s="10"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="10"/>
-      <c r="G36" s="10"/>
-      <c r="H36" s="10"/>
-      <c r="I36" s="10"/>
-      <c r="J36" s="10"/>
-      <c r="K36" s="10"/>
-      <c r="L36" s="10"/>
-      <c r="M36" s="10"/>
-      <c r="N36" s="10"/>
-      <c r="O36" s="10"/>
-      <c r="P36" s="10"/>
-      <c r="Q36" s="10"/>
-      <c r="R36" s="10"/>
-      <c r="S36" s="10"/>
-      <c r="T36" s="10"/>
-      <c r="U36" s="10"/>
-      <c r="V36" s="10"/>
-      <c r="W36" s="10"/>
-      <c r="X36" s="10"/>
-      <c r="Y36" s="10"/>
-      <c r="Z36" s="10"/>
-      <c r="AA36" s="10"/>
-    </row>
-    <row r="37" spans="1:27" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="10"/>
-      <c r="B37" s="10"/>
-      <c r="C37" s="10"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="10"/>
-      <c r="F37" s="10"/>
-      <c r="G37" s="10"/>
-      <c r="H37" s="10"/>
-      <c r="I37" s="10"/>
-      <c r="J37" s="10"/>
-      <c r="K37" s="10"/>
-      <c r="L37" s="10"/>
-      <c r="M37" s="10"/>
-      <c r="N37" s="10"/>
-      <c r="O37" s="10"/>
-      <c r="P37" s="10"/>
-      <c r="Q37" s="10"/>
-      <c r="R37" s="10"/>
-      <c r="S37" s="10"/>
-      <c r="T37" s="10"/>
-      <c r="U37" s="10"/>
-      <c r="V37" s="10"/>
-      <c r="W37" s="10"/>
-      <c r="X37" s="10"/>
-      <c r="Y37" s="10"/>
-      <c r="Z37" s="10"/>
-      <c r="AA37" s="10"/>
-    </row>
-    <row r="38" spans="1:27" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="10"/>
-      <c r="B38" s="10"/>
-      <c r="C38" s="10"/>
-      <c r="D38" s="10"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="10"/>
-      <c r="G38" s="10"/>
-      <c r="H38" s="10"/>
-      <c r="I38" s="10"/>
-      <c r="J38" s="10"/>
-      <c r="K38" s="10"/>
-      <c r="L38" s="10"/>
-      <c r="M38" s="10"/>
-      <c r="N38" s="10"/>
-      <c r="O38" s="10"/>
-      <c r="P38" s="10"/>
-      <c r="Q38" s="10"/>
-      <c r="R38" s="10"/>
-      <c r="S38" s="10"/>
-      <c r="T38" s="10"/>
-      <c r="U38" s="10"/>
-      <c r="V38" s="10"/>
-      <c r="W38" s="10"/>
-      <c r="X38" s="10"/>
-      <c r="Y38" s="10"/>
-      <c r="Z38" s="10"/>
-      <c r="AA38" s="10"/>
-    </row>
-    <row r="39" spans="1:27" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="10"/>
-      <c r="B39" s="10"/>
-      <c r="C39" s="10"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
-      <c r="G39" s="10"/>
-      <c r="H39" s="10"/>
-      <c r="I39" s="10"/>
-      <c r="J39" s="10"/>
-      <c r="K39" s="10"/>
-      <c r="L39" s="10"/>
-      <c r="M39" s="10"/>
-      <c r="N39" s="10"/>
-      <c r="O39" s="10"/>
-      <c r="P39" s="10"/>
-      <c r="Q39" s="10"/>
-      <c r="R39" s="10"/>
-      <c r="S39" s="10"/>
-      <c r="T39" s="10"/>
-      <c r="U39" s="10"/>
-      <c r="V39" s="10"/>
-      <c r="W39" s="10"/>
-      <c r="X39" s="10"/>
-      <c r="Y39" s="10"/>
-      <c r="Z39" s="10"/>
-      <c r="AA39" s="10"/>
-    </row>
-    <row r="40" spans="1:27" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="10"/>
-      <c r="B40" s="10"/>
-      <c r="C40" s="10"/>
-      <c r="D40" s="10"/>
-      <c r="E40" s="10"/>
-      <c r="F40" s="10"/>
-      <c r="G40" s="10"/>
-      <c r="H40" s="10"/>
-      <c r="I40" s="10"/>
-      <c r="J40" s="10"/>
-      <c r="K40" s="10"/>
-      <c r="L40" s="10"/>
-      <c r="M40" s="10"/>
-      <c r="N40" s="10"/>
-      <c r="O40" s="10"/>
-      <c r="P40" s="10"/>
-      <c r="Q40" s="10"/>
-      <c r="R40" s="10"/>
-      <c r="S40" s="10"/>
-      <c r="T40" s="10"/>
-      <c r="U40" s="10"/>
-      <c r="V40" s="10"/>
-      <c r="W40" s="10"/>
-      <c r="X40" s="10"/>
-      <c r="Y40" s="10"/>
-      <c r="Z40" s="10"/>
-      <c r="AA40" s="10"/>
-    </row>
-    <row r="41" spans="1:27" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="10"/>
-      <c r="B41" s="10"/>
-      <c r="C41" s="10"/>
-      <c r="D41" s="10"/>
-      <c r="E41" s="10"/>
-      <c r="F41" s="10"/>
-      <c r="G41" s="10"/>
-      <c r="H41" s="10"/>
-      <c r="I41" s="10"/>
-      <c r="J41" s="10"/>
-      <c r="K41" s="10"/>
-      <c r="L41" s="10"/>
-      <c r="M41" s="10"/>
-      <c r="N41" s="10"/>
-      <c r="O41" s="10"/>
-      <c r="P41" s="10"/>
-      <c r="Q41" s="10"/>
-      <c r="R41" s="10"/>
-      <c r="S41" s="10"/>
-      <c r="T41" s="10"/>
-      <c r="U41" s="10"/>
-      <c r="V41" s="10"/>
-      <c r="W41" s="10"/>
-      <c r="X41" s="10"/>
-      <c r="Y41" s="10"/>
-      <c r="Z41" s="10"/>
-      <c r="AA41" s="10"/>
-    </row>
-    <row r="42" spans="1:27" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="10"/>
-      <c r="B42" s="10"/>
-      <c r="C42" s="10"/>
-      <c r="D42" s="10"/>
-      <c r="E42" s="10"/>
-      <c r="F42" s="10"/>
-      <c r="G42" s="10"/>
-      <c r="H42" s="10"/>
-      <c r="I42" s="10"/>
-      <c r="J42" s="10"/>
-      <c r="K42" s="10"/>
-      <c r="L42" s="10"/>
-      <c r="M42" s="10"/>
-      <c r="N42" s="10"/>
-      <c r="O42" s="10"/>
-      <c r="P42" s="10"/>
-      <c r="Q42" s="10"/>
-      <c r="R42" s="10"/>
-      <c r="S42" s="10"/>
-      <c r="T42" s="10"/>
-      <c r="U42" s="10"/>
-      <c r="V42" s="10"/>
-      <c r="W42" s="10"/>
-      <c r="X42" s="10"/>
-      <c r="Y42" s="10"/>
-      <c r="Z42" s="10"/>
-      <c r="AA42" s="10"/>
-    </row>
-    <row r="43" spans="1:27" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="10"/>
-      <c r="B43" s="10"/>
-      <c r="C43" s="10"/>
-      <c r="D43" s="10"/>
-      <c r="E43" s="10"/>
-      <c r="F43" s="10"/>
-      <c r="G43" s="10"/>
-      <c r="H43" s="10"/>
-      <c r="I43" s="10"/>
-      <c r="J43" s="10"/>
-      <c r="K43" s="10"/>
-      <c r="L43" s="10"/>
-      <c r="M43" s="10"/>
-      <c r="N43" s="10"/>
-      <c r="O43" s="10"/>
-      <c r="P43" s="10"/>
-      <c r="Q43" s="10"/>
-      <c r="R43" s="10"/>
-      <c r="S43" s="10"/>
-      <c r="T43" s="10"/>
-      <c r="U43" s="10"/>
-      <c r="V43" s="10"/>
-      <c r="W43" s="10"/>
-      <c r="X43" s="10"/>
-      <c r="Y43" s="10"/>
-      <c r="Z43" s="10"/>
-      <c r="AA43" s="10"/>
-    </row>
-    <row r="44" spans="1:27" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="10"/>
-      <c r="B44" s="10"/>
-      <c r="C44" s="10"/>
-      <c r="D44" s="10"/>
-      <c r="E44" s="10"/>
-      <c r="F44" s="10"/>
-      <c r="G44" s="10"/>
-      <c r="H44" s="10"/>
-      <c r="I44" s="10"/>
-      <c r="J44" s="10"/>
-      <c r="K44" s="10"/>
-      <c r="L44" s="10"/>
-      <c r="M44" s="10"/>
-      <c r="N44" s="10"/>
-      <c r="O44" s="10"/>
-      <c r="P44" s="10"/>
-      <c r="Q44" s="10"/>
-      <c r="R44" s="10"/>
-      <c r="S44" s="10"/>
-      <c r="T44" s="10"/>
-      <c r="U44" s="10"/>
-      <c r="V44" s="10"/>
-      <c r="W44" s="10"/>
-      <c r="X44" s="10"/>
-      <c r="Y44" s="10"/>
-      <c r="Z44" s="10"/>
-      <c r="AA44" s="10"/>
-    </row>
-    <row r="45" spans="1:27" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="10"/>
-      <c r="B45" s="10"/>
-      <c r="C45" s="10"/>
-      <c r="D45" s="10"/>
-      <c r="E45" s="10"/>
-      <c r="F45" s="10"/>
-      <c r="G45" s="10"/>
-      <c r="H45" s="10"/>
-      <c r="I45" s="10"/>
-      <c r="J45" s="10"/>
-      <c r="K45" s="10"/>
-      <c r="L45" s="10"/>
-      <c r="M45" s="10"/>
-      <c r="N45" s="10"/>
-      <c r="O45" s="10"/>
-      <c r="P45" s="10"/>
-      <c r="Q45" s="10"/>
-      <c r="R45" s="10"/>
-      <c r="S45" s="10"/>
-      <c r="T45" s="10"/>
-      <c r="U45" s="10"/>
-      <c r="V45" s="10"/>
-      <c r="W45" s="10"/>
-      <c r="X45" s="10"/>
-      <c r="Y45" s="10"/>
-      <c r="Z45" s="10"/>
-      <c r="AA45" s="10"/>
-    </row>
-    <row r="46" spans="1:27" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="10"/>
-      <c r="B46" s="10"/>
-      <c r="C46" s="10"/>
-      <c r="D46" s="10"/>
-      <c r="E46" s="10"/>
-      <c r="F46" s="10"/>
-      <c r="G46" s="10"/>
-      <c r="H46" s="10"/>
-      <c r="I46" s="10"/>
-      <c r="J46" s="10"/>
-      <c r="K46" s="10"/>
-      <c r="L46" s="10"/>
-      <c r="M46" s="10"/>
-      <c r="N46" s="10"/>
-      <c r="O46" s="10"/>
-      <c r="P46" s="10"/>
-      <c r="Q46" s="10"/>
-      <c r="R46" s="10"/>
-      <c r="S46" s="10"/>
-      <c r="T46" s="10"/>
-      <c r="U46" s="10"/>
-      <c r="V46" s="10"/>
-      <c r="W46" s="10"/>
-      <c r="X46" s="10"/>
-      <c r="Y46" s="10"/>
-      <c r="Z46" s="10"/>
-      <c r="AA46" s="10"/>
-    </row>
-    <row r="47" spans="1:27" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="10"/>
-      <c r="B47" s="10"/>
-      <c r="C47" s="10"/>
-      <c r="D47" s="10"/>
-      <c r="E47" s="10"/>
-      <c r="F47" s="10"/>
-      <c r="G47" s="10"/>
-      <c r="H47" s="10"/>
-      <c r="I47" s="10"/>
-      <c r="J47" s="10"/>
-      <c r="K47" s="10"/>
-      <c r="L47" s="10"/>
-      <c r="M47" s="10"/>
-      <c r="N47" s="10"/>
-      <c r="O47" s="10"/>
-      <c r="P47" s="10"/>
-      <c r="Q47" s="10"/>
-      <c r="R47" s="10"/>
-      <c r="S47" s="10"/>
-      <c r="T47" s="10"/>
-      <c r="U47" s="10"/>
-      <c r="V47" s="10"/>
-      <c r="W47" s="10"/>
-      <c r="X47" s="10"/>
-      <c r="Y47" s="10"/>
-      <c r="Z47" s="10"/>
-      <c r="AA47" s="10"/>
-    </row>
-    <row r="48" spans="1:27" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="10"/>
-      <c r="B48" s="10"/>
-      <c r="C48" s="10"/>
-      <c r="D48" s="10"/>
-      <c r="E48" s="10"/>
-      <c r="F48" s="10"/>
-      <c r="G48" s="10"/>
-      <c r="H48" s="10"/>
-      <c r="I48" s="10"/>
-      <c r="J48" s="10"/>
-      <c r="K48" s="10"/>
-      <c r="L48" s="10"/>
-      <c r="M48" s="10"/>
-      <c r="N48" s="10"/>
-      <c r="O48" s="10"/>
-      <c r="P48" s="10"/>
-      <c r="Q48" s="10"/>
-      <c r="R48" s="10"/>
-      <c r="S48" s="10"/>
-      <c r="T48" s="10"/>
-      <c r="U48" s="10"/>
-      <c r="V48" s="10"/>
-      <c r="W48" s="10"/>
-      <c r="X48" s="10"/>
-      <c r="Y48" s="10"/>
-      <c r="Z48" s="10"/>
-      <c r="AA48" s="10"/>
-    </row>
-    <row r="49" spans="1:27" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="10"/>
-      <c r="B49" s="10"/>
-      <c r="C49" s="10"/>
-      <c r="D49" s="10"/>
-      <c r="E49" s="10"/>
-      <c r="F49" s="10"/>
-      <c r="G49" s="10"/>
-      <c r="H49" s="10"/>
-      <c r="I49" s="10"/>
-      <c r="J49" s="10"/>
-      <c r="K49" s="10"/>
-      <c r="L49" s="10"/>
-      <c r="M49" s="10"/>
-      <c r="N49" s="10"/>
-      <c r="O49" s="10"/>
-      <c r="P49" s="10"/>
-      <c r="Q49" s="10"/>
-      <c r="R49" s="10"/>
-      <c r="S49" s="10"/>
-      <c r="T49" s="10"/>
-      <c r="U49" s="10"/>
-      <c r="V49" s="10"/>
-      <c r="W49" s="10"/>
-      <c r="X49" s="10"/>
-      <c r="Y49" s="10"/>
-      <c r="Z49" s="10"/>
-      <c r="AA49" s="10"/>
-    </row>
-    <row r="50" spans="1:27" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="10"/>
-      <c r="B50" s="10"/>
-      <c r="C50" s="10"/>
-      <c r="D50" s="10"/>
-      <c r="E50" s="10"/>
-      <c r="F50" s="10"/>
-      <c r="G50" s="10"/>
-      <c r="H50" s="10"/>
-      <c r="I50" s="10"/>
-      <c r="J50" s="10"/>
-      <c r="K50" s="10"/>
-      <c r="L50" s="10"/>
-      <c r="M50" s="10"/>
-      <c r="N50" s="10"/>
-      <c r="O50" s="10"/>
-      <c r="P50" s="10"/>
-      <c r="Q50" s="10"/>
-      <c r="R50" s="10"/>
-      <c r="S50" s="10"/>
-      <c r="T50" s="10"/>
-      <c r="U50" s="10"/>
-      <c r="V50" s="10"/>
-      <c r="W50" s="10"/>
-      <c r="X50" s="10"/>
-      <c r="Y50" s="10"/>
-      <c r="Z50" s="10"/>
-      <c r="AA50" s="10"/>
-    </row>
-    <row r="51" spans="1:27" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="10"/>
-      <c r="B51" s="10"/>
-      <c r="C51" s="10"/>
-      <c r="D51" s="10"/>
-      <c r="E51" s="10"/>
-      <c r="F51" s="10"/>
-      <c r="G51" s="10"/>
-      <c r="H51" s="10"/>
-      <c r="I51" s="10"/>
-      <c r="J51" s="10"/>
-      <c r="K51" s="10"/>
-      <c r="L51" s="10"/>
-      <c r="M51" s="10"/>
-      <c r="N51" s="10"/>
-      <c r="O51" s="10"/>
-      <c r="P51" s="10"/>
-      <c r="Q51" s="10"/>
-      <c r="R51" s="10"/>
-      <c r="S51" s="10"/>
-      <c r="T51" s="10"/>
-      <c r="U51" s="10"/>
-      <c r="V51" s="10"/>
-      <c r="W51" s="10"/>
-      <c r="X51" s="10"/>
-      <c r="Y51" s="10"/>
-      <c r="Z51" s="10"/>
-      <c r="AA51" s="10"/>
-    </row>
-    <row r="52" spans="1:27" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="10"/>
-      <c r="B52" s="10"/>
-      <c r="C52" s="10"/>
-      <c r="D52" s="10"/>
-      <c r="E52" s="10"/>
-      <c r="F52" s="10"/>
-      <c r="G52" s="10"/>
-      <c r="H52" s="10"/>
-      <c r="I52" s="10"/>
-      <c r="J52" s="10"/>
-      <c r="K52" s="10"/>
-      <c r="L52" s="10"/>
-      <c r="M52" s="10"/>
-      <c r="N52" s="10"/>
-      <c r="O52" s="10"/>
-      <c r="P52" s="10"/>
-      <c r="Q52" s="10"/>
-      <c r="R52" s="10"/>
-      <c r="S52" s="10"/>
-      <c r="T52" s="10"/>
-      <c r="U52" s="10"/>
-      <c r="V52" s="10"/>
-      <c r="W52" s="10"/>
-      <c r="X52" s="10"/>
-      <c r="Y52" s="10"/>
-      <c r="Z52" s="10"/>
-      <c r="AA52" s="10"/>
-    </row>
-    <row r="53" spans="1:27" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="10"/>
-      <c r="B53" s="10"/>
-      <c r="C53" s="10"/>
-      <c r="D53" s="10"/>
-      <c r="E53" s="10"/>
-      <c r="F53" s="10"/>
-      <c r="G53" s="10"/>
-      <c r="H53" s="10"/>
-      <c r="I53" s="10"/>
-      <c r="J53" s="10"/>
-      <c r="K53" s="10"/>
-      <c r="L53" s="10"/>
-      <c r="M53" s="10"/>
-      <c r="N53" s="10"/>
-      <c r="O53" s="10"/>
-      <c r="P53" s="10"/>
-      <c r="Q53" s="10"/>
-      <c r="R53" s="10"/>
-      <c r="S53" s="10"/>
-      <c r="T53" s="10"/>
-      <c r="U53" s="10"/>
-      <c r="V53" s="10"/>
-      <c r="W53" s="10"/>
-      <c r="X53" s="10"/>
-      <c r="Y53" s="10"/>
-      <c r="Z53" s="10"/>
-      <c r="AA53" s="10"/>
-    </row>
-    <row r="54" spans="1:27" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="10"/>
-      <c r="B54" s="10"/>
-      <c r="C54" s="10"/>
-      <c r="D54" s="10"/>
-      <c r="E54" s="10"/>
-      <c r="F54" s="10"/>
-      <c r="G54" s="10"/>
-      <c r="H54" s="10"/>
-      <c r="I54" s="10"/>
-      <c r="J54" s="10"/>
-      <c r="K54" s="10"/>
-      <c r="L54" s="10"/>
-      <c r="M54" s="10"/>
-      <c r="N54" s="10"/>
-      <c r="O54" s="10"/>
-      <c r="P54" s="10"/>
-      <c r="Q54" s="10"/>
-      <c r="R54" s="10"/>
-      <c r="S54" s="10"/>
-      <c r="T54" s="10"/>
-      <c r="U54" s="10"/>
-      <c r="V54" s="10"/>
-      <c r="W54" s="10"/>
-      <c r="X54" s="10"/>
-      <c r="Y54" s="10"/>
-      <c r="Z54" s="10"/>
-      <c r="AA54" s="10"/>
-    </row>
-    <row r="55" spans="1:27" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="10"/>
-      <c r="B55" s="10"/>
-      <c r="C55" s="10"/>
-      <c r="D55" s="10"/>
-      <c r="E55" s="10"/>
-      <c r="F55" s="10"/>
-      <c r="G55" s="10"/>
-      <c r="H55" s="10"/>
-      <c r="I55" s="10"/>
-      <c r="J55" s="10"/>
-      <c r="K55" s="10"/>
-      <c r="L55" s="10"/>
-      <c r="M55" s="10"/>
-      <c r="N55" s="10"/>
-      <c r="O55" s="10"/>
-      <c r="P55" s="10"/>
-      <c r="Q55" s="10"/>
-      <c r="R55" s="10"/>
-      <c r="S55" s="10"/>
-      <c r="T55" s="10"/>
-      <c r="U55" s="10"/>
-      <c r="V55" s="10"/>
-      <c r="W55" s="10"/>
-      <c r="X55" s="10"/>
-      <c r="Y55" s="10"/>
-      <c r="Z55" s="10"/>
-      <c r="AA55" s="10"/>
-    </row>
-    <row r="56" spans="1:27" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="10"/>
-      <c r="B56" s="10"/>
-      <c r="C56" s="10"/>
-      <c r="D56" s="10"/>
-      <c r="E56" s="10"/>
-      <c r="F56" s="10"/>
-      <c r="G56" s="10"/>
-      <c r="H56" s="10"/>
-      <c r="I56" s="10"/>
-      <c r="J56" s="10"/>
-      <c r="K56" s="10"/>
-      <c r="L56" s="10"/>
-      <c r="M56" s="10"/>
-      <c r="N56" s="10"/>
-      <c r="O56" s="10"/>
-      <c r="P56" s="10"/>
-      <c r="Q56" s="10"/>
-      <c r="R56" s="10"/>
-      <c r="S56" s="10"/>
-      <c r="T56" s="10"/>
-      <c r="U56" s="10"/>
-      <c r="V56" s="10"/>
-      <c r="W56" s="10"/>
-      <c r="X56" s="10"/>
-      <c r="Y56" s="10"/>
-      <c r="Z56" s="10"/>
-      <c r="AA56" s="10"/>
-    </row>
-    <row r="57" spans="1:27" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="10"/>
-      <c r="B57" s="10"/>
-      <c r="C57" s="10"/>
-      <c r="D57" s="10"/>
-      <c r="E57" s="10"/>
-      <c r="F57" s="10"/>
-      <c r="G57" s="10"/>
-      <c r="H57" s="10"/>
-      <c r="I57" s="10"/>
-      <c r="J57" s="10"/>
-      <c r="K57" s="10"/>
-      <c r="L57" s="10"/>
-      <c r="M57" s="10"/>
-      <c r="N57" s="10"/>
-      <c r="O57" s="10"/>
-      <c r="P57" s="10"/>
-      <c r="Q57" s="10"/>
-      <c r="R57" s="10"/>
-      <c r="S57" s="10"/>
-      <c r="T57" s="10"/>
-      <c r="U57" s="10"/>
-      <c r="V57" s="10"/>
-      <c r="W57" s="10"/>
-      <c r="X57" s="10"/>
-      <c r="Y57" s="10"/>
-      <c r="Z57" s="10"/>
-      <c r="AA57" s="10"/>
-    </row>
-    <row r="58" spans="1:27" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="10"/>
-      <c r="B58" s="10"/>
-      <c r="C58" s="10"/>
-      <c r="D58" s="10"/>
-      <c r="E58" s="10"/>
-      <c r="F58" s="10"/>
-      <c r="G58" s="10"/>
-      <c r="H58" s="10"/>
-      <c r="I58" s="10"/>
-      <c r="J58" s="10"/>
-      <c r="K58" s="10"/>
-      <c r="L58" s="10"/>
-      <c r="M58" s="10"/>
-      <c r="N58" s="10"/>
-      <c r="O58" s="10"/>
-      <c r="P58" s="10"/>
-      <c r="Q58" s="10"/>
-      <c r="R58" s="10"/>
-      <c r="S58" s="10"/>
-      <c r="T58" s="10"/>
-      <c r="U58" s="10"/>
-      <c r="V58" s="10"/>
-      <c r="W58" s="10"/>
-      <c r="X58" s="10"/>
-      <c r="Y58" s="10"/>
-      <c r="Z58" s="10"/>
-      <c r="AA58" s="10"/>
-    </row>
-    <row r="59" spans="1:27" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="10"/>
-      <c r="B59" s="10"/>
-      <c r="C59" s="10"/>
-      <c r="D59" s="10"/>
-      <c r="E59" s="10"/>
-      <c r="F59" s="10"/>
-      <c r="G59" s="10"/>
-      <c r="H59" s="10"/>
-      <c r="I59" s="10"/>
-      <c r="J59" s="10"/>
-      <c r="K59" s="10"/>
-      <c r="L59" s="10"/>
-      <c r="M59" s="10"/>
-      <c r="N59" s="10"/>
-      <c r="O59" s="10"/>
-      <c r="P59" s="10"/>
-      <c r="Q59" s="10"/>
-      <c r="R59" s="10"/>
-      <c r="S59" s="10"/>
-      <c r="T59" s="10"/>
-      <c r="U59" s="10"/>
-      <c r="V59" s="10"/>
-      <c r="W59" s="10"/>
-      <c r="X59" s="10"/>
-      <c r="Y59" s="10"/>
-      <c r="Z59" s="10"/>
-      <c r="AA59" s="10"/>
-    </row>
-    <row r="60" spans="1:27" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="10"/>
-      <c r="B60" s="10"/>
-      <c r="C60" s="10"/>
-      <c r="D60" s="10"/>
-      <c r="E60" s="10"/>
-      <c r="F60" s="10"/>
-      <c r="G60" s="10"/>
-      <c r="H60" s="10"/>
-      <c r="I60" s="10"/>
-      <c r="J60" s="10"/>
-      <c r="K60" s="10"/>
-      <c r="L60" s="10"/>
-      <c r="M60" s="10"/>
-      <c r="N60" s="10"/>
-      <c r="O60" s="10"/>
-      <c r="P60" s="10"/>
-      <c r="Q60" s="10"/>
-      <c r="R60" s="10"/>
-      <c r="S60" s="10"/>
-      <c r="T60" s="10"/>
-      <c r="U60" s="10"/>
-      <c r="V60" s="10"/>
-      <c r="W60" s="10"/>
-      <c r="X60" s="10"/>
-      <c r="Y60" s="10"/>
-      <c r="Z60" s="10"/>
-      <c r="AA60" s="10"/>
-    </row>
-    <row r="61" spans="1:27" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="10"/>
-      <c r="B61" s="10"/>
-      <c r="C61" s="10"/>
-      <c r="D61" s="10"/>
-      <c r="E61" s="10"/>
-      <c r="F61" s="10"/>
-      <c r="G61" s="10"/>
-      <c r="H61" s="10"/>
-      <c r="I61" s="10"/>
-      <c r="J61" s="10"/>
-      <c r="K61" s="10"/>
-      <c r="L61" s="10"/>
-      <c r="M61" s="10"/>
-      <c r="N61" s="10"/>
-      <c r="O61" s="10"/>
-      <c r="P61" s="10"/>
-      <c r="Q61" s="10"/>
-      <c r="R61" s="10"/>
-      <c r="S61" s="10"/>
-      <c r="T61" s="10"/>
-      <c r="U61" s="10"/>
-      <c r="V61" s="10"/>
-      <c r="W61" s="10"/>
-      <c r="X61" s="10"/>
-      <c r="Y61" s="10"/>
-      <c r="Z61" s="10"/>
-      <c r="AA61" s="10"/>
-    </row>
-    <row r="62" spans="1:27" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="63" spans="1:27" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="64" spans="1:27" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="65" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="66" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="67" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="68" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="69" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="70" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="71" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="72" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="73" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="74" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="75" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="76" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="77" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="78" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="79" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="80" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="81" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="82" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="83" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="84" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="85" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="86" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="87" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="88" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="89" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="90" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="91" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="92" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="93" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="94" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="95" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="96" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="97" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="98" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="99" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="100" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="101" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="102" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="103" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="104" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="105" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="106" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="107" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="108" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="109" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="110" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="111" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="112" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="113" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="114" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="115" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="116" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="117" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="118" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="119" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="120" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="121" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="122" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="123" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="124" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="125" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="126" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="127" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="128" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="129" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="130" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="131" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="132" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="133" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="134" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="135" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="136" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="137" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="138" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="139" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="140" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="141" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="142" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="143" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="144" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="145" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="146" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="147" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="148" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="149" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="150" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="151" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="152" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="153" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="154" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="155" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="156" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="157" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="158" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="159" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="160" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="161" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="162" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="163" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="164" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="165" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="166" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="167" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="168" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="169" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="170" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="171" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="172" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="173" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="174" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="175" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="176" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="177" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="178" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="179" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="180" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="181" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="182" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="183" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="184" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="185" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="186" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="187" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="188" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="189" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="190" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="191" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="192" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="193" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="194" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="195" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="196" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="197" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="198" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="199" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="200" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="201" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="202" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="203" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="204" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="205" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="206" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="207" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="208" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="209" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="210" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="211" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="212" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="213" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="214" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="215" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="216" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="217" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="218" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="219" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="220" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="221" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="222" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="223" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="224" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="225" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="226" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="227" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="228" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="229" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="230" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="231" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="232" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="233" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="234" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="235" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="236" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="237" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="238" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="239" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="240" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="241" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="242" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="243" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="244" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="245" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="246" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="247" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="248" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="249" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="250" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="251" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="252" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="253" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="254" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="255" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="256" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="257" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="258" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="259" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="260" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="261" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="262" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="263" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="264" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="265" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="266" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="267" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="268" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="269" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="270" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="271" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="272" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="273" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="274" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="275" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="276" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="277" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="278" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="279" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="280" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="281" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="282" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="283" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="284" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="285" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="286" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="287" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="288" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="289" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="290" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="291" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="292" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="293" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="294" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="295" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="296" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="297" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="298" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="299" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="300" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="301" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="302" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="303" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="304" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="305" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="306" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="307" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="308" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="309" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="310" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="311" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="312" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="313" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="314" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="315" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="316" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="317" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="318" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="319" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="320" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="321" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="322" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="323" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="324" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="325" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="326" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="327" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="328" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="329" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="330" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="331" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="332" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="333" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="334" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="335" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="336" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="337" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="338" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="339" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="340" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="341" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="342" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="343" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="344" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="345" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="346" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="347" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="348" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="349" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="350" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="351" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="352" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="353" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="354" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="355" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="356" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="357" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="358" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="359" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="360" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="361" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="362" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="363" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="364" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="365" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="366" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="367" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="368" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="369" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="370" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="371" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="372" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="373" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="374" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="375" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="376" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="377" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="378" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="379" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="380" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="381" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="382" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="383" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="384" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="385" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="386" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="387" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="388" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="389" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="390" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="391" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="392" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="393" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="394" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="395" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="396" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="397" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="398" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="399" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="400" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="401" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="402" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="403" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="404" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="405" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="406" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="407" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="408" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="409" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="410" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="411" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="412" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="413" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="414" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="415" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="416" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="417" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="418" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="419" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="420" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="421" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="422" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="423" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="424" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="425" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="426" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="427" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="428" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="429" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="430" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="431" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="432" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="433" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="434" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="435" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="436" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="437" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="438" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="439" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="440" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="441" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="442" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="443" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="444" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="445" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="446" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="447" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="448" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="449" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="450" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="451" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="452" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="453" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="454" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="455" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="456" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="457" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="458" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="459" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="460" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="461" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="462" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="463" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="464" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="465" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="466" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="467" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="468" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="469" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="470" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="471" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="472" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="473" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="474" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="475" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="476" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="477" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="478" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="479" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="480" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="481" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="482" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="483" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="484" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="485" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="486" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="487" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="488" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="489" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="490" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="491" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="492" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="493" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="494" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="495" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="496" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="497" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="498" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="499" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="500" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="501" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="502" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="503" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="504" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="505" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="506" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="507" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="508" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="509" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="510" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="511" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="512" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="513" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="514" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="515" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="516" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="517" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="518" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="519" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="520" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="521" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="522" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="523" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="524" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="525" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="526" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="527" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="528" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="529" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="530" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="531" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="532" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="533" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="534" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="535" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="536" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="537" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="538" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="539" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="540" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="541" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="542" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="543" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="544" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="545" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="546" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="547" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="548" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="549" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="550" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="551" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="552" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="553" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="554" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="555" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="556" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="557" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="558" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="559" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="560" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="561" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="562" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="563" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="564" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="565" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="566" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="567" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="568" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="569" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="570" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="571" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="572" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="573" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="574" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="575" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="576" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="577" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="578" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="579" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="580" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="581" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="582" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="583" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="584" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="585" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="586" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="587" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="588" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="589" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="590" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="591" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="592" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="593" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="594" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="595" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="596" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="597" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="598" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="599" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="600" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="601" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="602" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="603" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="604" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="605" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="606" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="607" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="608" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="609" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="610" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="611" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="612" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="613" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="614" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="615" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="616" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="617" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="618" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="619" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="620" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="621" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="622" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="623" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="624" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="625" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="626" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="627" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="628" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="629" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="630" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="631" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="632" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="633" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="634" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="635" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="636" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="637" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="638" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="639" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="640" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="641" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="642" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="643" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="644" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="645" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="646" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="647" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="648" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="649" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="650" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="651" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="652" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="653" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="654" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="655" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="656" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="657" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="658" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="659" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="660" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="661" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="662" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="663" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="664" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="665" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="666" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="667" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="668" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="669" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="670" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="671" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="672" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="673" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="674" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="675" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="676" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="677" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="678" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="679" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="680" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="681" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="682" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="683" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="684" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="685" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="686" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="687" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="688" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="689" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="690" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="691" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="692" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="693" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="694" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="695" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="696" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="697" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="698" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="699" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="700" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="701" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="702" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="703" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="704" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="705" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="706" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="707" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="708" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="709" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="710" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="711" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="712" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="713" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="714" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="715" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="716" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="717" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="718" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="719" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="720" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="721" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="722" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="723" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="724" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="725" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="726" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="727" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="728" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="729" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="730" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="731" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="732" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="733" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="734" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="735" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="736" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="737" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="738" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="739" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="740" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="741" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="742" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="743" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="744" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="745" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="746" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="747" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="748" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="749" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="750" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="751" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="752" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="753" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="754" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="755" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="756" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="757" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="758" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="759" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="760" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="761" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="762" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="763" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="764" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="765" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="766" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="767" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="768" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="769" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="770" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="771" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="772" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="773" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="774" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="775" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="776" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="777" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="778" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="779" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="780" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="781" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="782" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="783" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="784" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="785" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="786" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="787" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="788" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="789" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="790" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="791" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="792" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="793" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="794" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="795" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="796" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="797" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="798" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="799" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="800" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="801" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="802" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="803" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="804" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="805" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="806" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="807" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="808" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="809" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="810" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="811" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="812" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="813" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="814" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="815" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="816" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="817" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="818" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="819" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="820" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="821" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="822" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="823" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="824" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="825" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="826" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="827" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="828" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="829" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="830" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="831" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="832" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="833" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="834" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="835" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="836" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="837" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="838" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="839" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="840" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="841" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="842" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="843" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="844" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="845" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="846" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="847" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="848" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="849" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="850" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="851" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="852" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="853" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="854" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="855" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="856" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="857" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="858" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="859" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="860" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="861" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="862" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="863" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="864" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="865" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="866" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="867" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="868" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="869" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="870" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="871" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="872" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="873" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="874" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="875" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="876" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="877" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="878" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="879" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="880" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="881" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="882" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="883" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="884" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="885" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="886" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="887" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="888" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="889" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="890" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="891" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="892" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="893" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="894" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="895" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="896" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="897" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="898" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="899" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="900" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="901" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="902" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="903" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="904" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="905" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="906" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="907" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="908" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="909" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="910" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="911" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="912" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="913" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="914" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="915" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="916" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="917" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="918" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="919" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="920" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="921" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="922" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="923" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="924" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="925" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="926" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="927" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="928" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="929" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="930" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="931" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="932" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="933" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="934" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="935" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="936" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="937" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="938" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="939" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="940" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="941" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="942" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="943" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="944" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="945" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="946" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="947" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="948" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="949" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="950" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="951" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="952" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="953" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="954" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="955" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="956" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="957" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="958" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="959" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="960" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="961" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="962" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="963" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="964" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="965" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="966" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="967" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="968" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="969" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="970" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="971" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="972" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="973" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="974" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="975" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="976" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="977" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="978" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="979" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="980" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="981" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="982" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="983" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="984" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="985" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="986" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="987" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="988" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="989" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="990" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="991" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="992" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="993" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="994" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="995" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="996" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="997" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="998" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="999" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="1000" ht="12.5" hidden="1" x14ac:dyDescent="0.25"/>
+    </row>
+    <row r="1005" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1005" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1006" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1007" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1008" t="s">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/ClueLayout.xlsx
+++ b/data/ClueLayout.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amber\Desktop\eclipse-workspace\CluePaths\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07C7A453-2FB3-4465-9E3E-3A0BD58E0FAF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53C8F033-64F6-4227-8ABF-8680F744A3AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14400" yWindow="15" windowWidth="14220" windowHeight="10020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -471,8 +471,8 @@
   </sheetPr>
   <dimension ref="A1:AA1008"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+    <sheetView tabSelected="1" topLeftCell="D7" workbookViewId="0">
+      <selection activeCell="S22" sqref="S22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/data/ClueLayout.xlsx
+++ b/data/ClueLayout.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amber\Desktop\eclipse-workspace\CluePaths\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53C8F033-64F6-4227-8ABF-8680F744A3AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11AF6DDF-1B7D-4F0A-A4B3-EACAB7442DA0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14400" yWindow="15" windowWidth="14220" windowHeight="10020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -109,10 +109,10 @@
     <t>Green: adjacency lists besides room entrance</t>
   </si>
   <si>
-    <t>Light Purple: walkway scenarios</t>
+    <t>Red: walkway scenarios</t>
   </si>
   <si>
-    <t>Light Blue: test targets</t>
+    <t>Pink: test targets</t>
   </si>
 </sst>
 </file>
@@ -146,7 +146,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -201,6 +201,36 @@
         <bgColor rgb="FFCFE2F3"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor rgb="FFCFE2F3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor rgb="FF1155CC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor rgb="FFC27BA0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FFC27BA0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor rgb="FFC27BA0"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -214,7 +244,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -249,6 +279,21 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -471,8 +516,8 @@
   </sheetPr>
   <dimension ref="A1:AA1008"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D7" workbookViewId="0">
-      <selection activeCell="S22" sqref="S22"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -496,7 +541,7 @@
       <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="17" t="s">
         <v>1</v>
       </c>
       <c r="G1" s="3" t="s">
@@ -769,13 +814,13 @@
       <c r="M4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="N4" s="2" t="s">
+      <c r="N4" s="16" t="s">
         <v>1</v>
       </c>
       <c r="O4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="P4" s="3" t="s">
+      <c r="P4" s="14" t="s">
         <v>3</v>
       </c>
       <c r="Q4" s="3" t="s">
@@ -1092,7 +1137,7 @@
       <c r="J8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="K8" s="5" t="s">
+      <c r="K8" s="15" t="s">
         <v>6</v>
       </c>
       <c r="L8" s="3" t="s">
@@ -1196,7 +1241,7 @@
       <c r="Q9" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="R9" s="2" t="s">
+      <c r="R9" s="17" t="s">
         <v>1</v>
       </c>
       <c r="S9" s="2" t="s">
@@ -1433,7 +1478,7 @@
       <c r="M12" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="N12" s="2" t="s">
+      <c r="N12" s="18" t="s">
         <v>1</v>
       </c>
       <c r="O12" s="2" t="s">
@@ -1489,7 +1534,7 @@
       <c r="D13" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="16" t="s">
         <v>1</v>
       </c>
       <c r="F13" s="2" t="s">
@@ -1608,7 +1653,7 @@
       <c r="P14" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="Q14" s="2" t="s">
+      <c r="Q14" s="17" t="s">
         <v>1</v>
       </c>
       <c r="R14" s="2" t="s">
@@ -1990,7 +2035,7 @@
       <c r="E19" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="F19" s="14" t="s">
         <v>22</v>
       </c>
       <c r="G19" s="2" t="s">
@@ -1999,7 +2044,7 @@
       <c r="H19" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="I19" s="2" t="s">
+      <c r="I19" s="18" t="s">
         <v>1</v>
       </c>
       <c r="J19" s="2" t="s">
@@ -2112,7 +2157,7 @@
       <c r="R20" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="S20" s="2" t="s">
+      <c r="S20" s="17" t="s">
         <v>1</v>
       </c>
       <c r="T20" s="2" t="s">
@@ -2177,7 +2222,7 @@
       <c r="L21" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="M21" s="2" t="s">
+      <c r="M21" s="16" t="s">
         <v>1</v>
       </c>
       <c r="N21" s="2" t="s">
@@ -2263,7 +2308,7 @@
       <c r="M22" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="N22" s="5" t="s">
+      <c r="N22" s="15" t="s">
         <v>18</v>
       </c>
       <c r="O22" s="3" t="s">
@@ -2488,7 +2533,7 @@
       <c r="E25" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F25" s="2" t="s">
+      <c r="F25" s="16" t="s">
         <v>1</v>
       </c>
       <c r="G25" s="2" t="s">
@@ -2521,7 +2566,7 @@
       <c r="P25" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="Q25" s="3" t="s">
+      <c r="Q25" s="14" t="s">
         <v>17</v>
       </c>
       <c r="R25" s="2" t="s">
@@ -2773,7 +2818,7 @@
       <c r="Q28" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="R28" s="2" t="s">
+      <c r="R28" s="17" t="s">
         <v>1</v>
       </c>
       <c r="S28" s="3" t="s">
@@ -4789,5 +4834,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/ClueLayout.xlsx
+++ b/data/ClueLayout.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amber\Desktop\eclipse-workspace\CluePaths\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11AF6DDF-1B7D-4F0A-A4B3-EACAB7442DA0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1325281B-DE9A-400A-BD57-03301257942A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="15" windowWidth="14220" windowHeight="10020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11535" yWindow="1200" windowWidth="14220" windowHeight="10020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -146,7 +146,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -231,6 +231,12 @@
         <bgColor rgb="FFC27BA0"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor rgb="FF1155CC"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -244,7 +250,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -294,6 +300,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -516,8 +525,8 @@
   </sheetPr>
   <dimension ref="A1:AA1008"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AA11" sqref="AA11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -565,7 +574,7 @@
       <c r="M1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="18" t="s">
         <v>1</v>
       </c>
       <c r="O1" s="3" t="s">
@@ -704,7 +713,7 @@
       <c r="D3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="18" t="s">
         <v>1</v>
       </c>
       <c r="F3" s="2" t="s">
@@ -1173,7 +1182,7 @@
       <c r="V8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="W8" s="5" t="s">
+      <c r="W8" s="19" t="s">
         <v>7</v>
       </c>
       <c r="X8" s="5" t="s">
@@ -2044,7 +2053,7 @@
       <c r="H19" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="I19" s="18" t="s">
+      <c r="I19" s="2" t="s">
         <v>1</v>
       </c>
       <c r="J19" s="2" t="s">
@@ -2127,7 +2136,7 @@
       <c r="H20" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="I20" s="2" t="s">
+      <c r="I20" s="18" t="s">
         <v>1</v>
       </c>
       <c r="J20" s="2" t="s">
@@ -2258,7 +2267,7 @@
       <c r="X21" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="Y21" s="5" t="s">
+      <c r="Y21" s="19" t="s">
         <v>16</v>
       </c>
       <c r="Z21" s="3" t="s">
